--- a/task1.xlsx
+++ b/task1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -52,7 +52,7 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>New Event</x:t>
+    <x:t>New Task</x:t>
   </x:si>
   <x:si>
     <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
@@ -61,10 +61,10 @@
     <x:t>Step 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on the Event tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Event Page</x:t>
+    <x:t>Click on the Task tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Task Page</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Valid value for required field Object Name </x:t>
@@ -91,40 +91,40 @@
     <x:t>User should be able to input value for the Object Value field.</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">Valid value for required field End Date(MM/DD/YYYY), End Time(12:00 AM/12:30 AM/etc.) </x:t>
+    <x:t xml:space="preserve">Valid value for required field Assigned To </x:t>
   </x:si>
   <x:si>
     <x:t>Step 4</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  End Date(MM/DD/YYYY), End Time(12:00 AM/12:30 AM/etc.) field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the End Date(MM/DD/YYYY), End Time(12:00 AM/12:30 AM/etc.) field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Assigned To </x:t>
+    <x:t>Input valid value in the  Assigned To field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Assigned To field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Priority </x:t>
   </x:si>
   <x:si>
     <x:t>Step 5</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Assigned To field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Assigned To field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Start Date(MM/DD/YYYY), Start Time(12:00 AM/12:30 AM/etc.) </x:t>
+    <x:t>Input valid value in the  Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Priority field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Status </x:t>
   </x:si>
   <x:si>
     <x:t>Step 6</x:t>
   </x:si>
   <x:si>
-    <x:t>Input valid value in the  Start Date(MM/DD/YYYY), Start Time(12:00 AM/12:30 AM/etc.) field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Start Date(MM/DD/YYYY), Start Time(12:00 AM/12:30 AM/etc.) field.</x:t>
+    <x:t>Input valid value in the  Status field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Status field.</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Valid value for required field Subject </x:t>
@@ -139,13 +139,49 @@
     <x:t>User should be able to input value for the Subject field.</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Valid value for Create Recurring Series of Tasks, Daily Every weekday?, Daily Every day?, Daily interval in days, Weekly Specify interval in weeks, Weekly Recurs on Sunday?, Weekly Recurs on Monday?, Weekly Recurs on Tuesday?, Weekly Recurs on Wednesday?, Weekly Recurs on Thursday?, Weekly Recurs on Friday?, Weekly Recurs on Saturday?, Monthly On day?, Monthly Day of the month(1-31), Monthly Specify interval in months, Monthly On week?, Monthly Which week of the month(1st/2nd/3rd/4th/last), Monthly Which day of the week(Sunday/Monday/etc.), Monthly Specify intervals in months, Yearly On every month?, Yearly Input Month(January/February/etc.), Yearly Day of month(1-31), Yearly On the particular week?, Yearly Which week of the month(1st/2nd/3rd/4th/last), Yearly Which day of the week(Sunday/Monday/etc.), Yearly Input Month(January/February/etc.), Recurrence Start(MM/DD/YYYY), Recurrence End(MM/DD/YYYY) </x:t>
+  </x:si>
+  <x:si>
     <x:t>Step 8</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on Save button to save Event with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Event is created</x:t>
+    <x:t>Input valid value in the  Create Recurring Series of Tasks, Daily Every weekday?, Daily Every day?, Daily interval in days, Weekly Specify interval in weeks, Weekly Recurs on Sunday?, Weekly Recurs on Monday?, Weekly Recurs on Tuesday?, Weekly Recurs on Wednesday?, Weekly Recurs on Thursday?, Weekly Recurs on Friday?, Weekly Recurs on Saturday?, Monthly On day?, Monthly Day of the month(1-31), Monthly Specify interval in months, Monthly On week?, Monthly Which week of the month(1st/2nd/3rd/4th/last), Monthly Which day of the week(Sunday/Monday/etc.), Monthly Specify intervals in months, Yearly On every month?, Yearly Input Month(January/February/etc.), Yearly Day of month(1-31), Yearly On the particular week?, Yearly Which week of the month(1st/2nd/3rd/4th/last), Yearly Which day of the week(Sunday/Monday/etc.), Yearly Input Month(January/February/etc.), Recurrence Start(MM/DD/YYYY), Recurrence End(MM/DD/YYYY) field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Create Recurring Series of Tasks, Daily Every weekday?, Daily Every day?, Daily interval in days, Weekly Specify interval in weeks, Weekly Recurs on Sunday?, Weekly Recurs on Monday?, Weekly Recurs on Tuesday?, Weekly Recurs on Wednesday?, Weekly Recurs on Thursday?, Weekly Recurs on Friday?, Weekly Recurs on Saturday?, Monthly On day?, Monthly Day of the month(1-31), Monthly Specify interval in months, Monthly On week?, Monthly Which week of the month(1st/2nd/3rd/4th/last), Monthly Which day of the week(Sunday/Monday/etc.), Monthly Specify intervals in months, Yearly On every month?, Yearly Input Month(January/February/etc.), Yearly Day of month(1-31), Yearly On the particular week?, Yearly Which week of the month(1st/2nd/3rd/4th/last), Yearly Which day of the week(Sunday/Monday/etc.), Yearly Input Month(January/February/etc.), Recurrence Start(MM/DD/YYYY), Recurrence End(MM/DD/YYYY) field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for Due Date </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Due Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Due Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for Set Reminder, Reminder Days, Reminder days before the event(1 day before/2 days before/etc.) with Recurrence and Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and Tasks, Reminder Date(MM/DD/YYYY) without Recurrence and with Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and with Tasks </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Set Reminder, Reminder Days, Reminder days before the event(1 day before/2 days before/etc.) with Recurrence and Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and Tasks, Reminder Date(MM/DD/YYYY) without Recurrence and with Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and with Tasks field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Set Reminder, Reminder Days, Reminder days before the event(1 day before/2 days before/etc.) with Recurrence and Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and Tasks, Reminder Date(MM/DD/YYYY) without Recurrence and with Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and with Tasks field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Task with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Task is created</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2</x:t>
@@ -154,19 +190,19 @@
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>View Event</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Event tab,  and select a Event </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Event Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Event name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Event Details</x:t>
+    <x:t>View Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Task tab,  and select a Task </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Task Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Task name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Task Details</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_3</x:t>
@@ -175,160 +211,22 @@
     <x:t>TestScenario_3.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Edit Event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Event tab,  and click on existing Event to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Event Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Event is edited</x:t>
+    <x:t>Edit Task</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Task tab,  and click on existing Task to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Task Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Task is edited</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete Event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Event tab,  and select the existing  Event to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Event is deleted</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_5.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Task tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Task Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Priority </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Status </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for Create Recurring Series of Tasks, Daily Every weekday?, Daily Every day?, Daily interval in days, Weekly Specify interval in weeks, Weekly Recurs on Sunday?, Weekly Recurs on Monday?, Weekly Recurs on Tuesday?, Weekly Recurs on Wednesday?, Weekly Recurs on Thursday?, Weekly Recurs on Friday?, Weekly Recurs on Saturday?, Monthly On day?, Monthly Day of the month(1-31), Monthly Specify interval in months, Monthly On week?, Monthly Which week of the month(1st/2nd/3rd/4th/last), Monthly Which day of the week(Sunday/Monday/etc.), Monthly Specify intervals in months, Yearly On every month?, Yearly Input Month(January/February/etc.), Yearly Day of month(1-31), Yearly On the particular week?, Yearly Which week of the month(1st/2nd/3rd/4th/last), Yearly Which day of the week(Sunday/Monday/etc.), Yearly Input Month(January/February/etc.), Recurrence Start(MM/DD/YYYY), Recurrence End(MM/DD/YYYY) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Create Recurring Series of Tasks, Daily Every weekday?, Daily Every day?, Daily interval in days, Weekly Specify interval in weeks, Weekly Recurs on Sunday?, Weekly Recurs on Monday?, Weekly Recurs on Tuesday?, Weekly Recurs on Wednesday?, Weekly Recurs on Thursday?, Weekly Recurs on Friday?, Weekly Recurs on Saturday?, Monthly On day?, Monthly Day of the month(1-31), Monthly Specify interval in months, Monthly On week?, Monthly Which week of the month(1st/2nd/3rd/4th/last), Monthly Which day of the week(Sunday/Monday/etc.), Monthly Specify intervals in months, Yearly On every month?, Yearly Input Month(January/February/etc.), Yearly Day of month(1-31), Yearly On the particular week?, Yearly Which week of the month(1st/2nd/3rd/4th/last), Yearly Which day of the week(Sunday/Monday/etc.), Yearly Input Month(January/February/etc.), Recurrence Start(MM/DD/YYYY), Recurrence End(MM/DD/YYYY) field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Create Recurring Series of Tasks, Daily Every weekday?, Daily Every day?, Daily interval in days, Weekly Specify interval in weeks, Weekly Recurs on Sunday?, Weekly Recurs on Monday?, Weekly Recurs on Tuesday?, Weekly Recurs on Wednesday?, Weekly Recurs on Thursday?, Weekly Recurs on Friday?, Weekly Recurs on Saturday?, Monthly On day?, Monthly Day of the month(1-31), Monthly Specify interval in months, Monthly On week?, Monthly Which week of the month(1st/2nd/3rd/4th/last), Monthly Which day of the week(Sunday/Monday/etc.), Monthly Specify intervals in months, Yearly On every month?, Yearly Input Month(January/February/etc.), Yearly Day of month(1-31), Yearly On the particular week?, Yearly Which week of the month(1st/2nd/3rd/4th/last), Yearly Which day of the week(Sunday/Monday/etc.), Yearly Input Month(January/February/etc.), Recurrence Start(MM/DD/YYYY), Recurrence End(MM/DD/YYYY) field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for Due Date </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Due Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Due Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for Set Reminder, Reminder Days, Reminder days before the event(1 day before/2 days before/etc.) with Recurrence and Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and Tasks, Reminder Date(MM/DD/YYYY) without Recurrence and with Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and with Tasks </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Set Reminder, Reminder Days, Reminder days before the event(1 day before/2 days before/etc.) with Recurrence and Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and Tasks, Reminder Date(MM/DD/YYYY) without Recurrence and with Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and with Tasks field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Set Reminder, Reminder Days, Reminder days before the event(1 day before/2 days before/etc.) with Recurrence and Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and Tasks, Reminder Date(MM/DD/YYYY) without Recurrence and with Tasks, Reminder time(12:00 AM/12:30 AM/etc.) with Recurrence and with Tasks field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Task with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Task is created</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_6.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Task tab,  and select a Task </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Task Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Task name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Task Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_7.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Edit Task</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Task tab,  and click on existing Task to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Task Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Task is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_8.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Delete Task</x:t>
@@ -430,8 +328,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J49" totalsRowShown="0">
-  <x:autoFilter ref="A1:J49"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J28" totalsRowShown="0">
+  <x:autoFilter ref="A1:J28"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -736,7 +634,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J49"/>
+  <x:dimension ref="A1:J28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -744,7 +642,7 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="838.55062500000008" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
@@ -937,35 +835,31 @@
       <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="F10" s="0" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s"/>
-      <x:c r="F10" s="0" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
         <x:v>47</x:v>
@@ -981,35 +875,29 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
         <x:v>54</x:v>
@@ -1021,21 +909,27 @@
       <x:c r="J12" s="0" t="s"/>
     </x:row>
     <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="s"/>
-      <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
+      <x:c r="A13" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -1045,37 +939,41 @@
       <x:c r="B14" s="0" t="s"/>
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
     </x:row>
     <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="A15" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1086,16 +984,16 @@
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1106,16 +1004,16 @@
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1126,16 +1024,16 @@
       <x:c r="C18" s="0" t="s"/>
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1145,41 +1043,37 @@
       <x:c r="B19" s="0" t="s"/>
       <x:c r="C19" s="0" t="s"/>
       <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s"/>
+      <x:c r="A20" s="0" t="s"/>
+      <x:c r="B20" s="0" t="s"/>
+      <x:c r="C20" s="0" t="s"/>
+      <x:c r="D20" s="0" t="s"/>
+      <x:c r="E20" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1189,15 +1083,17 @@
       <x:c r="B21" s="0" t="s"/>
       <x:c r="C21" s="0" t="s"/>
       <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s"/>
+      <x:c r="E21" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
@@ -1207,41 +1103,37 @@
       <x:c r="B22" s="0" t="s"/>
       <x:c r="C22" s="0" t="s"/>
       <x:c r="D22" s="0" t="s"/>
-      <x:c r="E22" s="0" t="s"/>
+      <x:c r="E22" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s"/>
+      <x:c r="A23" s="0" t="s"/>
+      <x:c r="B23" s="0" t="s"/>
+      <x:c r="C23" s="0" t="s"/>
+      <x:c r="D23" s="0" t="s"/>
+      <x:c r="E23" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1252,16 +1144,16 @@
       <x:c r="C24" s="0" t="s"/>
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1271,37 +1163,41 @@
       <x:c r="B25" s="0" t="s"/>
       <x:c r="C25" s="0" t="s"/>
       <x:c r="D25" s="0" t="s"/>
-      <x:c r="E25" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="A26" s="0" t="s"/>
-      <x:c r="B26" s="0" t="s"/>
-      <x:c r="C26" s="0" t="s"/>
-      <x:c r="D26" s="0" t="s"/>
-      <x:c r="E26" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="A26" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s"/>
       <x:c r="F26" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
@@ -1311,17 +1207,15 @@
       <x:c r="B27" s="0" t="s"/>
       <x:c r="C27" s="0" t="s"/>
       <x:c r="D27" s="0" t="s"/>
-      <x:c r="E27" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
+      <x:c r="E27" s="0" t="s"/>
       <x:c r="F27" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
@@ -1331,448 +1225,18 @@
       <x:c r="B28" s="0" t="s"/>
       <x:c r="C28" s="0" t="s"/>
       <x:c r="D28" s="0" t="s"/>
-      <x:c r="E28" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
+      <x:c r="E28" s="0" t="s"/>
       <x:c r="F28" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:10">
-      <x:c r="A29" s="0" t="s"/>
-      <x:c r="B29" s="0" t="s"/>
-      <x:c r="C29" s="0" t="s"/>
-      <x:c r="D29" s="0" t="s"/>
-      <x:c r="E29" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F29" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I29" s="0" t="s"/>
-      <x:c r="J29" s="0" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="0" t="s"/>
-      <x:c r="B30" s="0" t="s"/>
-      <x:c r="C30" s="0" t="s"/>
-      <x:c r="D30" s="0" t="s"/>
-      <x:c r="E30" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F30" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s"/>
-      <x:c r="J30" s="0" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s"/>
-      <x:c r="B31" s="0" t="s"/>
-      <x:c r="C31" s="0" t="s"/>
-      <x:c r="D31" s="0" t="s"/>
-      <x:c r="E31" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F31" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I31" s="0" t="s"/>
-      <x:c r="J31" s="0" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:10">
-      <x:c r="A32" s="0" t="s"/>
-      <x:c r="B32" s="0" t="s"/>
-      <x:c r="C32" s="0" t="s"/>
-      <x:c r="D32" s="0" t="s"/>
-      <x:c r="E32" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="F32" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="G32" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="I32" s="0" t="s"/>
-      <x:c r="J32" s="0" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:10">
-      <x:c r="A33" s="0" t="s"/>
-      <x:c r="B33" s="0" t="s"/>
-      <x:c r="C33" s="0" t="s"/>
-      <x:c r="D33" s="0" t="s"/>
-      <x:c r="E33" s="0" t="s"/>
-      <x:c r="F33" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="G33" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="I33" s="0" t="s"/>
-      <x:c r="J33" s="0" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:10">
-      <x:c r="A34" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E34" s="0" t="s"/>
-      <x:c r="F34" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G34" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="I34" s="0" t="s"/>
-      <x:c r="J34" s="0" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:10">
-      <x:c r="A35" s="0" t="s"/>
-      <x:c r="B35" s="0" t="s"/>
-      <x:c r="C35" s="0" t="s"/>
-      <x:c r="D35" s="0" t="s"/>
-      <x:c r="E35" s="0" t="s"/>
-      <x:c r="F35" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G35" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="I35" s="0" t="s"/>
-      <x:c r="J35" s="0" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:10">
-      <x:c r="A36" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="B36" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="C36" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E36" s="0" t="s"/>
-      <x:c r="F36" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="I36" s="0" t="s"/>
-      <x:c r="J36" s="0" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:10">
-      <x:c r="A37" s="0" t="s"/>
-      <x:c r="B37" s="0" t="s"/>
-      <x:c r="C37" s="0" t="s"/>
-      <x:c r="D37" s="0" t="s"/>
-      <x:c r="E37" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F37" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I37" s="0" t="s"/>
-      <x:c r="J37" s="0" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:10">
-      <x:c r="A38" s="0" t="s"/>
-      <x:c r="B38" s="0" t="s"/>
-      <x:c r="C38" s="0" t="s"/>
-      <x:c r="D38" s="0" t="s"/>
-      <x:c r="E38" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F38" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I38" s="0" t="s"/>
-      <x:c r="J38" s="0" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:10">
-      <x:c r="A39" s="0" t="s"/>
-      <x:c r="B39" s="0" t="s"/>
-      <x:c r="C39" s="0" t="s"/>
-      <x:c r="D39" s="0" t="s"/>
-      <x:c r="E39" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F39" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G39" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I39" s="0" t="s"/>
-      <x:c r="J39" s="0" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:10">
-      <x:c r="A40" s="0" t="s"/>
-      <x:c r="B40" s="0" t="s"/>
-      <x:c r="C40" s="0" t="s"/>
-      <x:c r="D40" s="0" t="s"/>
-      <x:c r="E40" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="F40" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G40" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="I40" s="0" t="s"/>
-      <x:c r="J40" s="0" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:10">
-      <x:c r="A41" s="0" t="s"/>
-      <x:c r="B41" s="0" t="s"/>
-      <x:c r="C41" s="0" t="s"/>
-      <x:c r="D41" s="0" t="s"/>
-      <x:c r="E41" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="F41" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G41" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="I41" s="0" t="s"/>
-      <x:c r="J41" s="0" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:10">
-      <x:c r="A42" s="0" t="s"/>
-      <x:c r="B42" s="0" t="s"/>
-      <x:c r="C42" s="0" t="s"/>
-      <x:c r="D42" s="0" t="s"/>
-      <x:c r="E42" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F42" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="G42" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="I42" s="0" t="s"/>
-      <x:c r="J42" s="0" t="s"/>
-    </x:row>
-    <x:row r="43" spans="1:10">
-      <x:c r="A43" s="0" t="s"/>
-      <x:c r="B43" s="0" t="s"/>
-      <x:c r="C43" s="0" t="s"/>
-      <x:c r="D43" s="0" t="s"/>
-      <x:c r="E43" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F43" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G43" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I43" s="0" t="s"/>
-      <x:c r="J43" s="0" t="s"/>
-    </x:row>
-    <x:row r="44" spans="1:10">
-      <x:c r="A44" s="0" t="s"/>
-      <x:c r="B44" s="0" t="s"/>
-      <x:c r="C44" s="0" t="s"/>
-      <x:c r="D44" s="0" t="s"/>
-      <x:c r="E44" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F44" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G44" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H44" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I44" s="0" t="s"/>
-      <x:c r="J44" s="0" t="s"/>
-    </x:row>
-    <x:row r="45" spans="1:10">
-      <x:c r="A45" s="0" t="s"/>
-      <x:c r="B45" s="0" t="s"/>
-      <x:c r="C45" s="0" t="s"/>
-      <x:c r="D45" s="0" t="s"/>
-      <x:c r="E45" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="F45" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="G45" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="H45" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="I45" s="0" t="s"/>
-      <x:c r="J45" s="0" t="s"/>
-    </x:row>
-    <x:row r="46" spans="1:10">
-      <x:c r="A46" s="0" t="s"/>
-      <x:c r="B46" s="0" t="s"/>
-      <x:c r="C46" s="0" t="s"/>
-      <x:c r="D46" s="0" t="s"/>
-      <x:c r="E46" s="0" t="s"/>
-      <x:c r="F46" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="G46" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H46" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="I46" s="0" t="s"/>
-      <x:c r="J46" s="0" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:10">
-      <x:c r="A47" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B47" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C47" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D47" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E47" s="0" t="s"/>
-      <x:c r="F47" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G47" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="I47" s="0" t="s"/>
-      <x:c r="J47" s="0" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:10">
-      <x:c r="A48" s="0" t="s"/>
-      <x:c r="B48" s="0" t="s"/>
-      <x:c r="C48" s="0" t="s"/>
-      <x:c r="D48" s="0" t="s"/>
-      <x:c r="E48" s="0" t="s"/>
-      <x:c r="F48" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G48" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="H48" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="I48" s="0" t="s"/>
-      <x:c r="J48" s="0" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:10">
-      <x:c r="A49" s="0" t="s"/>
-      <x:c r="B49" s="0" t="s"/>
-      <x:c r="C49" s="0" t="s"/>
-      <x:c r="D49" s="0" t="s"/>
-      <x:c r="E49" s="0" t="s"/>
-      <x:c r="F49" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G49" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="I49" s="0" t="s"/>
-      <x:c r="J49" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
